--- a/config_2.9/new_vip_server.xlsx
+++ b/config_2.9/new_vip_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="693" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -1623,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1820,6 +1820,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2092,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
